--- a/Data/kantonale_vorlagen_list.xlsx
+++ b/Data/kantonale_vorlagen_list.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
   <si>
     <t>Kanton</t>
   </si>
@@ -38,208 +38,181 @@
     <t>LU</t>
   </si>
   <si>
+    <t>UR</t>
+  </si>
+  <si>
+    <t>ZG</t>
+  </si>
+  <si>
     <t>FR</t>
   </si>
   <si>
     <t>SO</t>
   </si>
   <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>TG</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>VD</t>
+    <t>VS</t>
   </si>
   <si>
     <t>GE</t>
   </si>
   <si>
-    <t>JU</t>
-  </si>
-  <si>
-    <t>242824</t>
-  </si>
-  <si>
-    <t>243141</t>
-  </si>
-  <si>
-    <t>243142</t>
-  </si>
-  <si>
-    <t>243209</t>
-  </si>
-  <si>
-    <t>243008</t>
-  </si>
-  <si>
-    <t>244588</t>
-  </si>
-  <si>
-    <t>244589</t>
-  </si>
-  <si>
-    <t>244590</t>
-  </si>
-  <si>
-    <t>244575</t>
-  </si>
-  <si>
-    <t>242826</t>
-  </si>
-  <si>
-    <t>242827</t>
-  </si>
-  <si>
-    <t>242828</t>
-  </si>
-  <si>
-    <t>244387</t>
-  </si>
-  <si>
-    <t>244388</t>
-  </si>
-  <si>
-    <t>244389</t>
-  </si>
-  <si>
-    <t>243240</t>
-  </si>
-  <si>
-    <t>243241</t>
-  </si>
-  <si>
-    <t>243977</t>
-  </si>
-  <si>
-    <t>244018</t>
-  </si>
-  <si>
-    <t>243847</t>
-  </si>
-  <si>
-    <t>244955</t>
-  </si>
-  <si>
-    <t>244956</t>
-  </si>
-  <si>
-    <t>244957</t>
-  </si>
-  <si>
-    <t>244963</t>
-  </si>
-  <si>
-    <t>244964</t>
-  </si>
-  <si>
-    <t>244965</t>
-  </si>
-  <si>
-    <t>243908</t>
-  </si>
-  <si>
-    <t>Kirchenordnung der Römisch-katholischen Körperschaft (Änderung vom 1. Dezember 2022)</t>
-  </si>
-  <si>
-    <t>Änderung der Kantonsverfassung (Anpassungen bei den Schuldenbremsen)</t>
-  </si>
-  <si>
-    <t>Volksinitiative "Für eine kantonale Elternzeit"</t>
-  </si>
-  <si>
-    <t>Ost- und Westumfahrung Flecken Beromünster</t>
-  </si>
-  <si>
-    <t>Neues Naturhistorisches Museum</t>
-  </si>
-  <si>
-    <t>Änderung des Gesundheitsgesetzes (GesG): Zulassung von Leistungserbringern im ambulanten Bereich</t>
-  </si>
-  <si>
-    <t>Gesetzesinitiative «Zwillingsinitiative 1 – Hände weg vom Katasterwert!»</t>
-  </si>
-  <si>
-    <t>Gesetzesinitiative «Zwillingsinitiative 2 – Hände weg von den Abzügen!»</t>
-  </si>
-  <si>
-    <t>Kreditbeschluss zur Fortführung der palliativen Spezialversorgung im Kanton Schaffhausen</t>
-  </si>
-  <si>
-    <t>Kantonsratsbeschluss über die Erhöhung des Eigenkapitals der Spitalregion Rheintal Werdenberg Sarganserland in Form einer Umwandlung von Kontokorrent-Darlehen</t>
-  </si>
-  <si>
-    <t>Kantonsratsbeschluss über die Erhöhung des Eigenkapitals des Spitals Linth in Form einer Umwandlung von Kontokorrent-Darlehen und eines Betriebsdarlehens</t>
-  </si>
-  <si>
-    <t>Kantonsratsbeschluss über die Darlehensgewährung an die Spitalregion Rheintal Werdenberg Sarganserland für verschiedene Bauvorhaben am Standort Grabs</t>
-  </si>
-  <si>
-    <t>Gesetz über die Ombudsstelle (Ombudsgesetz)</t>
-  </si>
-  <si>
-    <t>Verdichtung des Bahnangebots der Regio-S-Bahn Stein-Säckingen–Laufenburg; Verpflichtungskredit</t>
-  </si>
-  <si>
-    <t>Aargauische Volksinitiative "Klimaschutz braucht Initiative! (Aargauische Klimaschutzinitiative)"</t>
-  </si>
-  <si>
-    <t>Änderung des Gesetzes über die Energienutzung</t>
-  </si>
-  <si>
-    <t>Kreditbegehren über 127.2 Mio. Franken (Fr. 127'203'243.85) betreffend die Verwendung des Agios aus der Ausgabe von Partizipationsscheinen der Thurgauer Kantonalbank (TKB)</t>
+    <t>251585</t>
+  </si>
+  <si>
+    <t>251586</t>
+  </si>
+  <si>
+    <t>251587</t>
+  </si>
+  <si>
+    <t>251588</t>
+  </si>
+  <si>
+    <t>251595</t>
+  </si>
+  <si>
+    <t>251596</t>
+  </si>
+  <si>
+    <t>251065</t>
+  </si>
+  <si>
+    <t>251160</t>
+  </si>
+  <si>
+    <t>252851</t>
+  </si>
+  <si>
+    <t>252867</t>
+  </si>
+  <si>
+    <t>252013</t>
+  </si>
+  <si>
+    <t>252015</t>
+  </si>
+  <si>
+    <t>253359</t>
+  </si>
+  <si>
+    <t>253136</t>
+  </si>
+  <si>
+    <t>253183</t>
+  </si>
+  <si>
+    <t>253184</t>
+  </si>
+  <si>
+    <t>253194</t>
+  </si>
+  <si>
+    <t>253195</t>
+  </si>
+  <si>
+    <t>253196</t>
+  </si>
+  <si>
+    <t>253197</t>
+  </si>
+  <si>
+    <t>253198</t>
+  </si>
+  <si>
+    <t>253199</t>
+  </si>
+  <si>
+    <t>253203</t>
+  </si>
+  <si>
+    <t>253204</t>
+  </si>
+  <si>
+    <t>A. Kantonale Volksinitiative zur Durchsetzung von Recht und Ordnung («Anti-Chaoten-Initiative»)</t>
+  </si>
+  <si>
+    <t>B. Gegenvorschlag des Kantonsrates</t>
+  </si>
+  <si>
+    <t>C. Stichfrage: Welche der beiden Vorlagen soll in Kraft treten, falls sowohl die kantonale Volksinitiative als auch der Gegenvorschlag des Kantonsrates angenommen werden?</t>
+  </si>
+  <si>
+    <t>Änderung der Kantonsverfassung, Voraussetzungen für die Wahl an die obersten kantonalen Gerichte</t>
+  </si>
+  <si>
+    <t>Pistenverlängerungen Flughafen Zürich (Weisung an die Staatsvertretung im Verwaltungsrat der Flughafen Zürich AG)</t>
+  </si>
+  <si>
+    <t>Volksinitiative «Für öffentliche Uferwege mit ökologischer Aufwertung»</t>
+  </si>
+  <si>
+    <t>Änderung der Kantonsverfassung (Einführung dringliche Gesetzgebung)</t>
+  </si>
+  <si>
+    <t>Gesamtsanierung Ausbildungszentrum Sempach</t>
+  </si>
+  <si>
+    <t>Teilrevision des Polizeigesetzes (PolG)</t>
+  </si>
+  <si>
+    <t>Teilrevision des kantonalen Umweltgesetzes (KUG)</t>
+  </si>
+  <si>
+    <t>Kantonsratsbeschluss betreffend Rahmenkredit für die Planung, den Landerwerb und den Bau des Projekts «Umfahrung Unterägeri»</t>
+  </si>
+  <si>
+    <t>Kantonsratsbeschluss betreffend Rahmenkredit für die Planung, den Landerwerb und den Bau des Projekts «Umfahrung Zug»</t>
+  </si>
+  <si>
+    <t>Erhöhung der finanziellen Beteiligung des Staates am Aktienkapital der TPF</t>
+  </si>
+  <si>
+    <t>Volksinitiative «SO SCHLANK. SO STARK.» (1:85 – Initiative)</t>
+  </si>
+  <si>
+    <t>Verfassung des Kantons Wallis vom 25. April 2023</t>
+  </si>
+  <si>
+    <t>Gesetz über die Ladenöffnung vom 11. Mai 2023 (GLÖ)</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Modification de la Constitution cantonale (ajustements des freins à l’endettement)</t>
-  </si>
-  <si>
-    <t>Initiative populaire « Pour un congé parental cantonal »</t>
-  </si>
-  <si>
-    <t>Nouveau Musée d'histoire naturelle</t>
-  </si>
-  <si>
-    <t>Initiative populaire « Pour la protection du climat</t>
-  </si>
-  <si>
-    <t>IN 181 initiative 1000 emplois</t>
-  </si>
-  <si>
-    <t>IN 184 « Pour un congé parental maintenant ! »</t>
-  </si>
-  <si>
-    <t>IN185 «Pour une contribution temporaire de solidarité sur les grandes fortunes »</t>
-  </si>
-  <si>
-    <t>Loi constitutionnelle protection dans l'espace numérique</t>
-  </si>
-  <si>
-    <t>Loi constitutionnelle Droit à l'alimentation</t>
-  </si>
-  <si>
-    <t>Loi estimations fiscales de certains immeubles (LEFI)</t>
-  </si>
-  <si>
-    <t>Modification du 22 juin 2022 de la Constitution de la République et Canton du Jura du 20 mars 1977 (destitution de membres d'autorités)</t>
-  </si>
-  <si>
-    <t>Modifica della legge sull’apertura dei negozi</t>
-  </si>
-  <si>
-    <t>Modifica della legge tributaria</t>
+    <t>Modification de la Constitution cantonale (introduction de la procédure législative urgente)</t>
+  </si>
+  <si>
+    <t>Augmentation de la participation financière de l’Etat au capital-actions  des TPF</t>
+  </si>
+  <si>
+    <t>Constitution du canton du Valais du 25 avril 2023</t>
+  </si>
+  <si>
+    <t>Loi concernant l’ouverture des magasins du 11 mai 2023 (LOM)</t>
+  </si>
+  <si>
+    <t>Loi 13146 Suspension des délais référendaires à Pâques</t>
+  </si>
+  <si>
+    <t>Loi 13175 nombre de signatures pour les initiatives et les référendums</t>
+  </si>
+  <si>
+    <t>Loi 13253 Hymne officiel de la République et canton de Genève</t>
+  </si>
+  <si>
+    <t>Loi 12290 Pour de la PPE en droit de superficie dans le PAV</t>
+  </si>
+  <si>
+    <t>Loi 12291 Pour de la PPE dans le PAV</t>
+  </si>
+  <si>
+    <t>IN178 « Pour la réduction de l’impôt sur les véhicules »</t>
+  </si>
+  <si>
+    <t>Contreprojet à l'IN178 imposition écoresponsable et équitable des véhicules</t>
+  </si>
+  <si>
+    <t>Question subsidiaire: IN178 ou contreprojet ?</t>
   </si>
 </sst>
 </file>
@@ -312,237 +285,237 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
@@ -550,33 +523,33 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
@@ -584,186 +557,135 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
         <v>62</v>
       </c>
-      <c r="D21" t="s">
-        <v>66</v>
-      </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
